--- a/biology/Médecine/Eugenio_Travaini/Eugenio_Travaini.xlsx
+++ b/biology/Médecine/Eugenio_Travaini/Eugenio_Travaini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugenio Travaini, né le 1930 à Parabiago et mort le 15 août 1993 à Bolzano en Italie, est un médecin italien devenu écrivain.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugenio Travaini est tout d'abord médecin et enseignant à l'université de Milan puis il développe à Legnano un centre de médecine rééducative pour les polytraumatisés[1]. À partir des années 1970, il commence une carrière de romancier en publiant notamment Il vento in testa qui obtient le prix Stresa.
-Il meurt en 1993 des suites d'un accident de la route sur l'autoroute du Brenner[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugenio Travaini est tout d'abord médecin et enseignant à l'université de Milan puis il développe à Legnano un centre de médecine rééducative pour les polytraumatisés. À partir des années 1970, il commence une carrière de romancier en publiant notamment Il vento in testa qui obtient le prix Stresa.
+Il meurt en 1993 des suites d'un accident de la route sur l'autoroute du Brenner.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La malacarità, éditions Rizzoli, 1972
 Il vento in testa, éd. Rizzoli, 1976 – prix Stresa et dans la sélection finale du prix Campiello 1977
